--- a/data1.xlsx
+++ b/data1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mamun\NodeJS\Project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mamun\NodeJS\MobileProject\mobileproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C9ACBA-CCB3-4489-98C2-D20771909AA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A17F31-D421-4A73-B258-33844AF29149}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18EB1386-5C93-46F7-8DE9-EDC805D486AE}"/>
   </bookViews>
@@ -31,21 +31,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
-    <t>Name</t>
+    <t>Material</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Plant</t>
   </si>
   <si>
-    <t>Mamun</t>
+    <t>Storage_Location</t>
   </si>
   <si>
-    <t>Nashrah</t>
+    <t>Inventory</t>
   </si>
   <si>
-    <t>Mou</t>
+    <t>CAA1</t>
+  </si>
+  <si>
+    <t>CAB1</t>
   </si>
 </sst>
 </file>
@@ -81,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,44 +401,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66FED3F-30D3-40A2-B94A-8F510AA482F5}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>9001</v>
+      </c>
+      <c r="D2">
+        <v>1212</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>9001</v>
+      </c>
+      <c r="D3">
+        <v>2323</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3333</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>9001</v>
+      </c>
+      <c r="D4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4444</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>9006</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5555</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>9001</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
